--- a/Docs/Testing (TES)/RTM_reqs_to_tests.xlsx
+++ b/Docs/Testing (TES)/RTM_reqs_to_tests.xlsx
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,7 +744,7 @@
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
@@ -769,7 +769,7 @@
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
